--- a/tests/input/dummy_data2.xlsx
+++ b/tests/input/dummy_data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDC2761-6740-45ED-9F1C-0CB7764A904D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F18782-DE03-4239-A5B0-D8F7BE744934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
   </bookViews>
@@ -38,19 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="230">
   <si>
-    <t>Leuko</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
     <t>MCV</t>
-  </si>
-  <si>
-    <t>Trom</t>
-  </si>
-  <si>
-    <t>BSE</t>
   </si>
   <si>
     <t>Age</t>
@@ -413,13 +401,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>aCCP</t>
-  </si>
-  <si>
     <t>Sex</t>
-  </si>
-  <si>
-    <t>PATNR</t>
   </si>
   <si>
     <t>F</t>
@@ -727,15 +709,40 @@
   <si>
     <t>DUMMY2100</t>
   </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Thrombocytes</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>ACPA</t>
+  </si>
+  <si>
+    <t>Patient number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,8 +768,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1099,396 +1107,396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB15-C56C-476F-841C-D1AC343D3A50}">
   <dimension ref="A1:DX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
-      <selection activeCell="DX2" sqref="DX2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:DX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DW1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
+      <c r="DX1" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -1871,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -2257,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -2643,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -3029,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
@@ -3415,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DX6" t="s">
         <v>128</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -3801,10 +3809,10 @@
         <v>1</v>
       </c>
       <c r="DW7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -4187,10 +4195,10 @@
         <v>1</v>
       </c>
       <c r="DW8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
@@ -4573,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -4959,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="DW10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -5345,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -5731,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="DW12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -6117,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -6503,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -6889,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="DW15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -7275,10 +7283,10 @@
         <v>1</v>
       </c>
       <c r="DW16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -7661,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="DW17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -8047,10 +8055,10 @@
         <v>1</v>
       </c>
       <c r="DW18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -8433,10 +8441,10 @@
         <v>1</v>
       </c>
       <c r="DW19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -8819,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="DW20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -9205,10 +9213,10 @@
         <v>0</v>
       </c>
       <c r="DW21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -9591,10 +9599,10 @@
         <v>0</v>
       </c>
       <c r="DW22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -9977,10 +9985,10 @@
         <v>1</v>
       </c>
       <c r="DW23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -10363,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -10749,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="DW25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -11135,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="DW26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
@@ -11521,10 +11529,10 @@
         <v>0</v>
       </c>
       <c r="DW27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -11907,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -12293,10 +12301,10 @@
         <v>1</v>
       </c>
       <c r="DW29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -12679,10 +12687,10 @@
         <v>0</v>
       </c>
       <c r="DW30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -13065,10 +13073,10 @@
         <v>0</v>
       </c>
       <c r="DW31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -13451,10 +13459,10 @@
         <v>1</v>
       </c>
       <c r="DW32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -13837,10 +13845,10 @@
         <v>0</v>
       </c>
       <c r="DW33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
@@ -14223,10 +14231,10 @@
         <v>1</v>
       </c>
       <c r="DW34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -14609,10 +14617,10 @@
         <v>1</v>
       </c>
       <c r="DW35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
@@ -14995,10 +15003,10 @@
         <v>0</v>
       </c>
       <c r="DW36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -15381,10 +15389,10 @@
         <v>0</v>
       </c>
       <c r="DW37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -15767,10 +15775,10 @@
         <v>0</v>
       </c>
       <c r="DW38" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -16153,10 +16161,10 @@
         <v>0</v>
       </c>
       <c r="DW39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -16539,10 +16547,10 @@
         <v>0</v>
       </c>
       <c r="DW40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -16925,10 +16933,10 @@
         <v>1</v>
       </c>
       <c r="DW41" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
@@ -17311,10 +17319,10 @@
         <v>0</v>
       </c>
       <c r="DW42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
@@ -17697,10 +17705,10 @@
         <v>1</v>
       </c>
       <c r="DW43" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -18083,10 +18091,10 @@
         <v>0</v>
       </c>
       <c r="DW44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
@@ -18469,10 +18477,10 @@
         <v>0</v>
       </c>
       <c r="DW45" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -18855,10 +18863,10 @@
         <v>0</v>
       </c>
       <c r="DW46" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
@@ -19241,10 +19249,10 @@
         <v>0</v>
       </c>
       <c r="DW47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
@@ -19627,10 +19635,10 @@
         <v>0</v>
       </c>
       <c r="DW48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX48" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -20013,10 +20021,10 @@
         <v>0</v>
       </c>
       <c r="DW49" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX49" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
@@ -20399,10 +20407,10 @@
         <v>0</v>
       </c>
       <c r="DW50" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -20785,10 +20793,10 @@
         <v>1</v>
       </c>
       <c r="DW51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX51" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
@@ -21171,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="DW52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX52" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
@@ -21557,10 +21565,10 @@
         <v>0</v>
       </c>
       <c r="DW53" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
@@ -21943,10 +21951,10 @@
         <v>1</v>
       </c>
       <c r="DW54" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX54" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
@@ -22329,10 +22337,10 @@
         <v>1</v>
       </c>
       <c r="DW55" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX55" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
@@ -22715,10 +22723,10 @@
         <v>1</v>
       </c>
       <c r="DW56" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX56" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
@@ -23101,10 +23109,10 @@
         <v>0</v>
       </c>
       <c r="DW57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
@@ -23487,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="DW58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
@@ -23873,10 +23881,10 @@
         <v>0</v>
       </c>
       <c r="DW59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
@@ -24259,10 +24267,10 @@
         <v>0</v>
       </c>
       <c r="DW60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX60" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
@@ -24645,10 +24653,10 @@
         <v>1</v>
       </c>
       <c r="DW61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
@@ -25031,10 +25039,10 @@
         <v>0</v>
       </c>
       <c r="DW62" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX62" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
@@ -25417,10 +25425,10 @@
         <v>0</v>
       </c>
       <c r="DW63" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
@@ -25803,10 +25811,10 @@
         <v>1</v>
       </c>
       <c r="DW64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX64" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
@@ -26189,10 +26197,10 @@
         <v>1</v>
       </c>
       <c r="DW65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
@@ -26575,10 +26583,10 @@
         <v>0</v>
       </c>
       <c r="DW66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX66" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
@@ -26961,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="DW67" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX67" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
@@ -27347,10 +27355,10 @@
         <v>0</v>
       </c>
       <c r="DW68" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX68" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
@@ -27733,10 +27741,10 @@
         <v>0</v>
       </c>
       <c r="DW69" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX69" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
@@ -28119,10 +28127,10 @@
         <v>0</v>
       </c>
       <c r="DW70" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX70" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
@@ -28505,10 +28513,10 @@
         <v>0</v>
       </c>
       <c r="DW71" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX71" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
@@ -28891,10 +28899,10 @@
         <v>1</v>
       </c>
       <c r="DW72" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX72" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
@@ -29277,10 +29285,10 @@
         <v>1</v>
       </c>
       <c r="DW73" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX73" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
@@ -29663,10 +29671,10 @@
         <v>1</v>
       </c>
       <c r="DW74" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX74" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
@@ -30049,10 +30057,10 @@
         <v>0</v>
       </c>
       <c r="DW75" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX75" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
@@ -30435,10 +30443,10 @@
         <v>0</v>
       </c>
       <c r="DW76" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX76" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
@@ -30821,10 +30829,10 @@
         <v>1</v>
       </c>
       <c r="DW77" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX77" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
@@ -31207,10 +31215,10 @@
         <v>0</v>
       </c>
       <c r="DW78" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX78" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
@@ -31593,10 +31601,10 @@
         <v>1</v>
       </c>
       <c r="DW79" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX79" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
@@ -31979,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="DW80" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX80" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
@@ -32365,10 +32373,10 @@
         <v>0</v>
       </c>
       <c r="DW81" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX81" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
@@ -32751,10 +32759,10 @@
         <v>1</v>
       </c>
       <c r="DW82" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX82" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
@@ -33137,10 +33145,10 @@
         <v>1</v>
       </c>
       <c r="DW83" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX83" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
@@ -33523,10 +33531,10 @@
         <v>1</v>
       </c>
       <c r="DW84" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX84" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
@@ -33909,10 +33917,10 @@
         <v>0</v>
       </c>
       <c r="DW85" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX85" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
@@ -34295,10 +34303,10 @@
         <v>1</v>
       </c>
       <c r="DW86" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX86" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
@@ -34681,10 +34689,10 @@
         <v>1</v>
       </c>
       <c r="DW87" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX87" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
@@ -35067,10 +35075,10 @@
         <v>0</v>
       </c>
       <c r="DW88" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
@@ -35453,10 +35461,10 @@
         <v>1</v>
       </c>
       <c r="DW89" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX89" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
@@ -35839,10 +35847,10 @@
         <v>0</v>
       </c>
       <c r="DW90" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX90" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
@@ -36225,10 +36233,10 @@
         <v>0</v>
       </c>
       <c r="DW91" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX91" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
@@ -36611,10 +36619,10 @@
         <v>1</v>
       </c>
       <c r="DW92" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX92" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
@@ -36997,10 +37005,10 @@
         <v>1</v>
       </c>
       <c r="DW93" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX93" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
@@ -37383,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="DW94" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX94" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
@@ -37769,10 +37777,10 @@
         <v>1</v>
       </c>
       <c r="DW95" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX95" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
@@ -38155,10 +38163,10 @@
         <v>1</v>
       </c>
       <c r="DW96" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX96" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
@@ -38541,10 +38549,10 @@
         <v>1</v>
       </c>
       <c r="DW97" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX97" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
@@ -38927,10 +38935,10 @@
         <v>0</v>
       </c>
       <c r="DW98" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX98" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
@@ -39313,10 +39321,10 @@
         <v>0</v>
       </c>
       <c r="DW99" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX99" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -39699,10 +39707,10 @@
         <v>1</v>
       </c>
       <c r="DW100" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX100" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
@@ -40085,10 +40093,10 @@
         <v>1</v>
       </c>
       <c r="DW101" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX101" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/tests/input/dummy_data2.xlsx
+++ b/tests/input/dummy_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F18782-DE03-4239-A5B0-D8F7BE744934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6343EC36-CF9C-455D-BDEF-37F160B83376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
   </bookViews>
@@ -42,360 +42,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Zwelling_Elleboog L</t>
-  </si>
-  <si>
-    <t>Zwelling_IP links</t>
-  </si>
-  <si>
-    <t>Zwelling_IP rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_elleboog R</t>
-  </si>
-  <si>
-    <t>Zwelling_knie links</t>
-  </si>
-  <si>
-    <t>Zwelling_knie rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pols L</t>
-  </si>
-  <si>
-    <t>Zwelling_pols R</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder L</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder R</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair R</t>
-  </si>
-  <si>
-    <t>Pijn_Elleboog L</t>
-  </si>
-  <si>
-    <t>Pijn_IP links</t>
-  </si>
-  <si>
-    <t>Pijn_IP rechts</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_elleboog R</t>
-  </si>
-  <si>
-    <t>Pijn_heup links</t>
-  </si>
-  <si>
-    <t>Pijn_heup rechts</t>
-  </si>
-  <si>
-    <t>Pijn_knie links</t>
-  </si>
-  <si>
-    <t>Pijn_knie rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pols L</t>
-  </si>
-  <si>
-    <t>Pijn_pols R</t>
-  </si>
-  <si>
-    <t>Pijn_schouder L</t>
-  </si>
-  <si>
-    <t>Pijn_schouder R</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair R</t>
   </si>
   <si>
     <t>RF</t>
@@ -726,6 +372,360 @@
   </si>
   <si>
     <t>Patient number</t>
+  </si>
+  <si>
+    <t>s_el_left</t>
+  </si>
+  <si>
+    <t>s_pip1_left</t>
+  </si>
+  <si>
+    <t>s_pip1_right</t>
+  </si>
+  <si>
+    <t>s_ac_left</t>
+  </si>
+  <si>
+    <t>s_ac_right</t>
+  </si>
+  <si>
+    <t>s_ank_left</t>
+  </si>
+  <si>
+    <t>s_ank_right</t>
+  </si>
+  <si>
+    <t>s_dip2_left</t>
+  </si>
+  <si>
+    <t>s_dip2_right</t>
+  </si>
+  <si>
+    <t>s_dip3_left</t>
+  </si>
+  <si>
+    <t>s_dip3_right</t>
+  </si>
+  <si>
+    <t>s_dip4_left</t>
+  </si>
+  <si>
+    <t>s_dip4_right</t>
+  </si>
+  <si>
+    <t>s_dip5_left</t>
+  </si>
+  <si>
+    <t>s_dip5_right</t>
+  </si>
+  <si>
+    <t>s_el_right</t>
+  </si>
+  <si>
+    <t>s_kn_left</t>
+  </si>
+  <si>
+    <t>s_kn_right</t>
+  </si>
+  <si>
+    <t>s_mcp1_left</t>
+  </si>
+  <si>
+    <t>s_mcp1_right</t>
+  </si>
+  <si>
+    <t>s_mcp2_left</t>
+  </si>
+  <si>
+    <t>s_mcp2_right</t>
+  </si>
+  <si>
+    <t>s_mcp3_left</t>
+  </si>
+  <si>
+    <t>s_mcp3_right</t>
+  </si>
+  <si>
+    <t>s_mcp4_left</t>
+  </si>
+  <si>
+    <t>s_mcp4_right</t>
+  </si>
+  <si>
+    <t>s_mcp5_left</t>
+  </si>
+  <si>
+    <t>s_mcp5_right</t>
+  </si>
+  <si>
+    <t>s_mtp1_left</t>
+  </si>
+  <si>
+    <t>s_mtp1_right</t>
+  </si>
+  <si>
+    <t>s_mtp2_left</t>
+  </si>
+  <si>
+    <t>s_mtp2_right</t>
+  </si>
+  <si>
+    <t>s_mtp3_left</t>
+  </si>
+  <si>
+    <t>s_mtp3_right</t>
+  </si>
+  <si>
+    <t>s_mtp4_left</t>
+  </si>
+  <si>
+    <t>s_mtp4_right</t>
+  </si>
+  <si>
+    <t>s_mtp5_left</t>
+  </si>
+  <si>
+    <t>s_mtp5_right</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>s_pip2_left</t>
+  </si>
+  <si>
+    <t>s_pip2_right</t>
+  </si>
+  <si>
+    <t>s_pip3_left</t>
+  </si>
+  <si>
+    <t>s_pip3_right</t>
+  </si>
+  <si>
+    <t>s_pip4_left</t>
+  </si>
+  <si>
+    <t>s_pip4_right</t>
+  </si>
+  <si>
+    <t>s_pip5_left</t>
+  </si>
+  <si>
+    <t>s_pip5_right</t>
+  </si>
+  <si>
+    <t>s_wr_left</t>
+  </si>
+  <si>
+    <t>s_wr_right</t>
+  </si>
+  <si>
+    <t>s_sh_left</t>
+  </si>
+  <si>
+    <t>s_sh_right</t>
+  </si>
+  <si>
+    <t>s_sc_left</t>
+  </si>
+  <si>
+    <t>s_sc_right</t>
+  </si>
+  <si>
+    <t>s_tar_left</t>
+  </si>
+  <si>
+    <t>s_tar_right</t>
+  </si>
+  <si>
+    <t>s_tm_left</t>
+  </si>
+  <si>
+    <t>s_tm_right</t>
+  </si>
+  <si>
+    <t>t_el_left</t>
+  </si>
+  <si>
+    <t>t_pip1_left</t>
+  </si>
+  <si>
+    <t>t_pip1_right</t>
+  </si>
+  <si>
+    <t>t_ac_left</t>
+  </si>
+  <si>
+    <t>t_ac_right</t>
+  </si>
+  <si>
+    <t>t_ank_left</t>
+  </si>
+  <si>
+    <t>t_ank_right</t>
+  </si>
+  <si>
+    <t>t_dip2_left</t>
+  </si>
+  <si>
+    <t>t_dip2_right</t>
+  </si>
+  <si>
+    <t>t_dip3_left</t>
+  </si>
+  <si>
+    <t>t_dip3_right</t>
+  </si>
+  <si>
+    <t>t_dip4_left</t>
+  </si>
+  <si>
+    <t>t_dip4_right</t>
+  </si>
+  <si>
+    <t>t_dip5_left</t>
+  </si>
+  <si>
+    <t>t_dip5_right</t>
+  </si>
+  <si>
+    <t>t_el_right</t>
+  </si>
+  <si>
+    <t>t_hip_left</t>
+  </si>
+  <si>
+    <t>t_hip_right</t>
+  </si>
+  <si>
+    <t>t_kn_left</t>
+  </si>
+  <si>
+    <t>t_kn_right</t>
+  </si>
+  <si>
+    <t>t_mcp1_left</t>
+  </si>
+  <si>
+    <t>t_mcp1_right</t>
+  </si>
+  <si>
+    <t>t_mcp2_left</t>
+  </si>
+  <si>
+    <t>t_mcp2_right</t>
+  </si>
+  <si>
+    <t>t_mcp3_left</t>
+  </si>
+  <si>
+    <t>t_mcp3_right</t>
+  </si>
+  <si>
+    <t>t_mcp4_left</t>
+  </si>
+  <si>
+    <t>t_mcp4_right</t>
+  </si>
+  <si>
+    <t>t_mcp5_left</t>
+  </si>
+  <si>
+    <t>t_mcp5_right</t>
+  </si>
+  <si>
+    <t>t_mtp1_left</t>
+  </si>
+  <si>
+    <t>t_mtp1_right</t>
+  </si>
+  <si>
+    <t>t_mtp2_left</t>
+  </si>
+  <si>
+    <t>t_mtp2_right</t>
+  </si>
+  <si>
+    <t>t_mtp3_left</t>
+  </si>
+  <si>
+    <t>t_mtp3_right</t>
+  </si>
+  <si>
+    <t>t_mtp4_left</t>
+  </si>
+  <si>
+    <t>t_mtp4_right</t>
+  </si>
+  <si>
+    <t>t_mtp5_left</t>
+  </si>
+  <si>
+    <t>t_mtp5_right</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>t_pip2_left</t>
+  </si>
+  <si>
+    <t>t_pip2_right</t>
+  </si>
+  <si>
+    <t>t_pip3_left</t>
+  </si>
+  <si>
+    <t>t_pip3_right</t>
+  </si>
+  <si>
+    <t>t_pip4_left</t>
+  </si>
+  <si>
+    <t>t_pip4_right</t>
+  </si>
+  <si>
+    <t>t_pip5_left</t>
+  </si>
+  <si>
+    <t>t_pip5_right</t>
+  </si>
+  <si>
+    <t>t_wr_left</t>
+  </si>
+  <si>
+    <t>t_wr_right</t>
+  </si>
+  <si>
+    <t>t_sh_left</t>
+  </si>
+  <si>
+    <t>t_sh_right</t>
+  </si>
+  <si>
+    <t>t_sc_left</t>
+  </si>
+  <si>
+    <t>t_sc_right</t>
+  </si>
+  <si>
+    <t>t_tar_left</t>
+  </si>
+  <si>
+    <t>t_tar_right</t>
+  </si>
+  <si>
+    <t>t_tm_left</t>
+  </si>
+  <si>
+    <t>t_tm_right</t>
   </si>
 </sst>
 </file>
@@ -1108,395 +1108,395 @@
   <dimension ref="A1:DX101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:DX1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DO1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="DP1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="DQ1" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="DR1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="DS1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DU1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="DV1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DW1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -2265,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX3" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX5" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX6" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -3809,10 +3809,10 @@
         <v>1</v>
       </c>
       <c r="DW7" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -4195,10 +4195,10 @@
         <v>1</v>
       </c>
       <c r="DW8" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX8" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
@@ -4581,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -4967,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="DW10" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX10" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -5353,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX11" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -5739,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="DW12" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX12" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX13" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX14" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -6897,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="DW15" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX15" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -7283,10 +7283,10 @@
         <v>1</v>
       </c>
       <c r="DW16" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX16" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -7669,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="DW17" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX17" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -8055,10 +8055,10 @@
         <v>1</v>
       </c>
       <c r="DW18" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX18" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -8441,10 +8441,10 @@
         <v>1</v>
       </c>
       <c r="DW19" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX19" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -8827,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="DW20" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX20" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -9213,10 +9213,10 @@
         <v>0</v>
       </c>
       <c r="DW21" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX21" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -9599,10 +9599,10 @@
         <v>0</v>
       </c>
       <c r="DW22" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX22" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -9985,10 +9985,10 @@
         <v>1</v>
       </c>
       <c r="DW23" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX23" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -10371,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX24" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -10757,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="DW25" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX25" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -11143,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="DW26" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX26" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
@@ -11529,10 +11529,10 @@
         <v>0</v>
       </c>
       <c r="DW27" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX27" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -11915,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX28" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -12301,10 +12301,10 @@
         <v>1</v>
       </c>
       <c r="DW29" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX29" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -12687,10 +12687,10 @@
         <v>0</v>
       </c>
       <c r="DW30" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX30" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -13073,10 +13073,10 @@
         <v>0</v>
       </c>
       <c r="DW31" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX31" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -13459,10 +13459,10 @@
         <v>1</v>
       </c>
       <c r="DW32" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX32" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -13845,10 +13845,10 @@
         <v>0</v>
       </c>
       <c r="DW33" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX33" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
@@ -14231,10 +14231,10 @@
         <v>1</v>
       </c>
       <c r="DW34" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX34" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -14617,10 +14617,10 @@
         <v>1</v>
       </c>
       <c r="DW35" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX35" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
@@ -15003,10 +15003,10 @@
         <v>0</v>
       </c>
       <c r="DW36" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX36" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -15389,10 +15389,10 @@
         <v>0</v>
       </c>
       <c r="DW37" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX37" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -15775,10 +15775,10 @@
         <v>0</v>
       </c>
       <c r="DW38" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX38" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -16161,10 +16161,10 @@
         <v>0</v>
       </c>
       <c r="DW39" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX39" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -16547,10 +16547,10 @@
         <v>0</v>
       </c>
       <c r="DW40" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX40" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -16933,10 +16933,10 @@
         <v>1</v>
       </c>
       <c r="DW41" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX41" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
@@ -17319,10 +17319,10 @@
         <v>0</v>
       </c>
       <c r="DW42" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX42" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
@@ -17705,10 +17705,10 @@
         <v>1</v>
       </c>
       <c r="DW43" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX43" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -18091,10 +18091,10 @@
         <v>0</v>
       </c>
       <c r="DW44" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX44" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
@@ -18477,10 +18477,10 @@
         <v>0</v>
       </c>
       <c r="DW45" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX45" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -18863,10 +18863,10 @@
         <v>0</v>
       </c>
       <c r="DW46" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX46" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
@@ -19249,10 +19249,10 @@
         <v>0</v>
       </c>
       <c r="DW47" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX47" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
@@ -19635,10 +19635,10 @@
         <v>0</v>
       </c>
       <c r="DW48" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX48" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -20021,10 +20021,10 @@
         <v>0</v>
       </c>
       <c r="DW49" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX49" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
@@ -20407,10 +20407,10 @@
         <v>0</v>
       </c>
       <c r="DW50" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX50" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -20793,10 +20793,10 @@
         <v>1</v>
       </c>
       <c r="DW51" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX51" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
@@ -21179,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="DW52" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX52" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
@@ -21565,10 +21565,10 @@
         <v>0</v>
       </c>
       <c r="DW53" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX53" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
@@ -21951,10 +21951,10 @@
         <v>1</v>
       </c>
       <c r="DW54" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX54" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
@@ -22337,10 +22337,10 @@
         <v>1</v>
       </c>
       <c r="DW55" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX55" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
@@ -22723,10 +22723,10 @@
         <v>1</v>
       </c>
       <c r="DW56" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX56" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
@@ -23109,10 +23109,10 @@
         <v>0</v>
       </c>
       <c r="DW57" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX57" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="DW58" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX58" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
@@ -23881,10 +23881,10 @@
         <v>0</v>
       </c>
       <c r="DW59" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX59" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
@@ -24267,10 +24267,10 @@
         <v>0</v>
       </c>
       <c r="DW60" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX60" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
@@ -24653,10 +24653,10 @@
         <v>1</v>
       </c>
       <c r="DW61" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX61" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
@@ -25039,10 +25039,10 @@
         <v>0</v>
       </c>
       <c r="DW62" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX62" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
@@ -25425,10 +25425,10 @@
         <v>0</v>
       </c>
       <c r="DW63" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX63" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
@@ -25811,10 +25811,10 @@
         <v>1</v>
       </c>
       <c r="DW64" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX64" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
@@ -26197,10 +26197,10 @@
         <v>1</v>
       </c>
       <c r="DW65" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX65" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
@@ -26583,10 +26583,10 @@
         <v>0</v>
       </c>
       <c r="DW66" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX66" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
@@ -26969,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="DW67" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX67" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
@@ -27355,10 +27355,10 @@
         <v>0</v>
       </c>
       <c r="DW68" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX68" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
@@ -27741,10 +27741,10 @@
         <v>0</v>
       </c>
       <c r="DW69" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX69" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
@@ -28127,10 +28127,10 @@
         <v>0</v>
       </c>
       <c r="DW70" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX70" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
@@ -28513,10 +28513,10 @@
         <v>0</v>
       </c>
       <c r="DW71" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX71" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
@@ -28899,10 +28899,10 @@
         <v>1</v>
       </c>
       <c r="DW72" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX72" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
@@ -29285,10 +29285,10 @@
         <v>1</v>
       </c>
       <c r="DW73" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX73" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
@@ -29671,10 +29671,10 @@
         <v>1</v>
       </c>
       <c r="DW74" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX74" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
@@ -30057,10 +30057,10 @@
         <v>0</v>
       </c>
       <c r="DW75" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX75" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
@@ -30443,10 +30443,10 @@
         <v>0</v>
       </c>
       <c r="DW76" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX76" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
@@ -30829,10 +30829,10 @@
         <v>1</v>
       </c>
       <c r="DW77" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX77" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
@@ -31215,10 +31215,10 @@
         <v>0</v>
       </c>
       <c r="DW78" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX78" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
@@ -31601,10 +31601,10 @@
         <v>1</v>
       </c>
       <c r="DW79" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX79" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="DW80" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX80" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
@@ -32373,10 +32373,10 @@
         <v>0</v>
       </c>
       <c r="DW81" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX81" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
@@ -32759,10 +32759,10 @@
         <v>1</v>
       </c>
       <c r="DW82" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX82" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
@@ -33145,10 +33145,10 @@
         <v>1</v>
       </c>
       <c r="DW83" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX83" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
@@ -33531,10 +33531,10 @@
         <v>1</v>
       </c>
       <c r="DW84" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX84" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
@@ -33917,10 +33917,10 @@
         <v>0</v>
       </c>
       <c r="DW85" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX85" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
@@ -34303,10 +34303,10 @@
         <v>1</v>
       </c>
       <c r="DW86" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX86" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
@@ -34689,10 +34689,10 @@
         <v>1</v>
       </c>
       <c r="DW87" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX87" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
@@ -35075,10 +35075,10 @@
         <v>0</v>
       </c>
       <c r="DW88" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX88" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
@@ -35461,10 +35461,10 @@
         <v>1</v>
       </c>
       <c r="DW89" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX89" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
@@ -35847,10 +35847,10 @@
         <v>0</v>
       </c>
       <c r="DW90" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX90" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
@@ -36233,10 +36233,10 @@
         <v>0</v>
       </c>
       <c r="DW91" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX91" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
@@ -36619,10 +36619,10 @@
         <v>1</v>
       </c>
       <c r="DW92" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX92" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
@@ -37005,10 +37005,10 @@
         <v>1</v>
       </c>
       <c r="DW93" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX93" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="DW94" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX94" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
@@ -37777,10 +37777,10 @@
         <v>1</v>
       </c>
       <c r="DW95" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX95" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
@@ -38163,10 +38163,10 @@
         <v>1</v>
       </c>
       <c r="DW96" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX96" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
@@ -38549,10 +38549,10 @@
         <v>1</v>
       </c>
       <c r="DW97" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX97" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
@@ -38935,10 +38935,10 @@
         <v>0</v>
       </c>
       <c r="DW98" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX98" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
@@ -39321,10 +39321,10 @@
         <v>0</v>
       </c>
       <c r="DW99" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX99" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -39707,10 +39707,10 @@
         <v>1</v>
       </c>
       <c r="DW100" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX100" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
@@ -40093,10 +40093,10 @@
         <v>1</v>
       </c>
       <c r="DW101" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX101" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
